--- a/lab6/Лаба6.xlsx
+++ b/lab6/Лаба6.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pavel\Desktop\ИТМО\инфа\Labs\lab6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7799BF9-15D8-4619-9612-CF491D1E8A65}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F69BD45-0C72-4CC1-8F89-7971BC4F3880}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Отчет-колонтитул" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="124">
   <si>
     <t>Заказчик:</t>
   </si>
@@ -405,6 +405,12 @@
   </si>
   <si>
     <t>Обществознание</t>
+  </si>
+  <si>
+    <t>Зав. Отделом</t>
+  </si>
+  <si>
+    <t>Васькин В. С.</t>
   </si>
 </sst>
 </file>
@@ -415,7 +421,7 @@
     <numFmt numFmtId="8" formatCode="#,##0.00\ &quot;₽&quot;;[Red]\-#,##0.00\ &quot;₽&quot;"/>
     <numFmt numFmtId="164" formatCode="0_ ;[Red]\-0\ "/>
     <numFmt numFmtId="165" formatCode="[$-419]mmmm\ yyyy;@"/>
-    <numFmt numFmtId="170" formatCode="[$-419]d\ mmm;@"/>
+    <numFmt numFmtId="166" formatCode="[$-419]d\ mmm;@"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -458,7 +464,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -468,6 +474,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -772,6 +784,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -790,38 +829,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -840,48 +853,47 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="12">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -899,6 +911,16 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -934,6 +956,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -949,6 +981,26 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -989,6 +1041,67 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Заработная плата</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -1506,7 +1619,9 @@
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
-        <a:noFill/>
+        <a:solidFill>
+          <a:schemeClr val="bg2"/>
+        </a:solidFill>
         <a:ln>
           <a:noFill/>
         </a:ln>
@@ -2442,7 +2557,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2476,16 +2591,16 @@
     </row>
     <row r="3" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="4" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="21"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="38"/>
     </row>
     <row r="5" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
@@ -2679,15 +2794,15 @@
       </c>
     </row>
     <row r="12" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="23"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="23"/>
+      <c r="B12" s="40"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="40"/>
       <c r="H12" s="8">
         <f>SUM(H7:H11)</f>
         <v>25324</v>
@@ -2700,10 +2815,10 @@
       <c r="B14" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="24" t="s">
+      <c r="C14" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="24"/>
+      <c r="D14" s="41"/>
       <c r="E14" s="1" t="str">
         <f>B2</f>
         <v>Анисимов А. А.</v>
@@ -2713,10 +2828,10 @@
       <c r="B15" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="24" t="s">
+      <c r="C15" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="24"/>
+      <c r="D15" s="41"/>
       <c r="E15" s="1" t="str">
         <f>B1</f>
         <v>Шпагин Я. Н.</v>
@@ -2781,7 +2896,7 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B5" s="25"/>
+      <c r="B5" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2790,10 +2905,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BF83D87-F0AB-4AD3-A571-0D4C1698E6B7}">
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
-    <sheetView zoomScale="77" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView zoomScale="81" workbookViewId="0">
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2804,6 +2919,7 @@
     <col min="7" max="7" width="17.6328125" customWidth="1"/>
     <col min="8" max="8" width="16.90625" customWidth="1"/>
     <col min="9" max="9" width="11.36328125" customWidth="1"/>
+    <col min="10" max="10" width="13.54296875" customWidth="1"/>
     <col min="14" max="14" width="20.90625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2833,413 +2949,440 @@
     </row>
     <row r="4" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="5" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="B5" s="48" t="s">
+      <c r="B5" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="49"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="49"/>
-      <c r="H5" s="49"/>
-      <c r="I5" s="49"/>
-      <c r="J5" s="49"/>
-      <c r="K5" s="49"/>
-      <c r="L5" s="49"/>
-      <c r="M5" s="49"/>
-      <c r="N5" s="50"/>
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="48"/>
+      <c r="H5" s="48"/>
+      <c r="I5" s="48"/>
+      <c r="J5" s="48"/>
+      <c r="K5" s="48"/>
+      <c r="L5" s="48"/>
+      <c r="M5" s="48"/>
+      <c r="N5" s="49"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="B6" s="32" t="s">
+      <c r="B6" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="28" t="s">
+      <c r="C6" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="D6" s="28" t="s">
+      <c r="D6" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="E6" s="28" t="s">
+      <c r="E6" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="F6" s="28" t="s">
+      <c r="F6" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="G6" s="45" t="s">
+      <c r="G6" s="44" t="s">
         <v>46</v>
       </c>
-      <c r="H6" s="46"/>
-      <c r="I6" s="46"/>
-      <c r="J6" s="47"/>
-      <c r="K6" s="45" t="s">
+      <c r="H6" s="45"/>
+      <c r="I6" s="45"/>
+      <c r="J6" s="46"/>
+      <c r="K6" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="L6" s="46"/>
-      <c r="M6" s="47"/>
-      <c r="N6" s="33" t="s">
+      <c r="L6" s="45"/>
+      <c r="M6" s="46"/>
+      <c r="N6" s="52" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="B7" s="32"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="27" t="s">
+      <c r="B7" s="50"/>
+      <c r="C7" s="51"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="51"/>
+      <c r="G7" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="H7" s="27" t="s">
+      <c r="H7" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="I7" s="27" t="s">
+      <c r="I7" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="J7" s="27" t="s">
+      <c r="J7" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="K7" s="27" t="s">
+      <c r="K7" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="L7" s="27" t="s">
+      <c r="L7" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="M7" s="27" t="s">
+      <c r="M7" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="N7" s="33"/>
+      <c r="N7" s="52"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="B8" s="34" t="s">
+      <c r="B8" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="C8" s="27" t="s">
+      <c r="C8" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="D8" s="27">
+      <c r="D8" s="20">
         <v>4500</v>
       </c>
-      <c r="E8" s="29">
+      <c r="E8" s="21">
         <v>0.47</v>
       </c>
-      <c r="F8" s="27">
+      <c r="F8" s="20">
         <v>3</v>
       </c>
-      <c r="G8" s="30">
+      <c r="G8" s="60">
         <f>D8/$B$3*($B$3 - F8)</f>
         <v>3980.7692307692305</v>
       </c>
-      <c r="H8" s="30">
+      <c r="H8" s="60">
         <f>D8/$B$3 * F8 *'Справочник - з.плата'!$B$4</f>
         <v>389.42307692307691</v>
       </c>
-      <c r="I8" s="30">
+      <c r="I8" s="60">
         <f>D8*E8</f>
         <v>2115</v>
       </c>
-      <c r="J8" s="30">
+      <c r="J8" s="60">
         <f>G8+H8+I8</f>
         <v>6485.1923076923076</v>
       </c>
-      <c r="K8" s="30">
+      <c r="K8" s="60">
         <f>J8*'Справочник - з.плата'!$B$2</f>
         <v>843.07500000000005</v>
       </c>
-      <c r="L8" s="30">
+      <c r="L8" s="60">
         <f>J8*'Справочник - з.плата'!$B$3</f>
         <v>64.851923076923072</v>
       </c>
-      <c r="M8" s="30">
+      <c r="M8" s="60">
         <f>K8+L8</f>
         <v>907.92692307692312</v>
       </c>
-      <c r="N8" s="35">
+      <c r="N8" s="61">
         <f>J8-M8</f>
         <v>5577.2653846153844</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="B9" s="34" t="s">
+      <c r="B9" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="C9" s="27" t="s">
+      <c r="C9" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="D9" s="27">
+      <c r="D9" s="20">
         <v>9000</v>
       </c>
-      <c r="E9" s="29">
+      <c r="E9" s="21">
         <v>0.01</v>
       </c>
-      <c r="F9" s="27"/>
-      <c r="G9" s="30">
+      <c r="F9" s="20"/>
+      <c r="G9" s="60">
         <f>D9/$B$3*($B$3 - F9)</f>
         <v>9000</v>
       </c>
-      <c r="H9" s="30">
+      <c r="H9" s="60">
         <f>D9/$B$3 * F9 *'Справочник - з.плата'!$B$4</f>
         <v>0</v>
       </c>
-      <c r="I9" s="30">
-        <f t="shared" ref="I9:I13" si="0">D9*E9</f>
+      <c r="I9" s="60">
+        <f>D9*E9</f>
         <v>90</v>
       </c>
-      <c r="J9" s="30">
-        <f t="shared" ref="J9:J13" si="1">G9+H9+I9</f>
+      <c r="J9" s="60">
+        <f t="shared" ref="J9:J13" si="0">G9+H9+I9</f>
         <v>9090</v>
       </c>
-      <c r="K9" s="30">
+      <c r="K9" s="60">
         <f>J9*'Справочник - з.плата'!$B$2</f>
         <v>1181.7</v>
       </c>
-      <c r="L9" s="30">
+      <c r="L9" s="60">
         <f>J9*'Справочник - з.плата'!$B$3</f>
         <v>90.9</v>
       </c>
-      <c r="M9" s="30">
-        <f t="shared" ref="M9:M13" si="2">K9+L9</f>
+      <c r="M9" s="60">
+        <f t="shared" ref="M9:M13" si="1">K9+L9</f>
         <v>1272.6000000000001</v>
       </c>
-      <c r="N9" s="35">
-        <f t="shared" ref="N9:N13" si="3">J9-M9</f>
+      <c r="N9" s="61">
+        <f t="shared" ref="N9:N12" si="2">J9-M9</f>
         <v>7817.4</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="B10" s="34" t="s">
+      <c r="B10" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="C10" s="27" t="s">
+      <c r="C10" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="D10" s="27">
+      <c r="D10" s="20">
         <v>3478</v>
       </c>
-      <c r="E10" s="29">
+      <c r="E10" s="21">
         <v>0.5</v>
       </c>
-      <c r="F10" s="27">
+      <c r="F10" s="20">
         <v>2</v>
       </c>
-      <c r="G10" s="30">
-        <f t="shared" ref="G9:G13" si="4">D10/$B$3*($B$3 - F10)</f>
+      <c r="G10" s="60">
+        <f t="shared" ref="G10:G13" si="3">D10/$B$3*($B$3 - F10)</f>
         <v>3210.4615384615386</v>
       </c>
-      <c r="H10" s="30">
+      <c r="H10" s="60">
         <f>D10/$B$3 * F10 *'Справочник - з.плата'!$B$4</f>
         <v>200.65384615384616</v>
       </c>
-      <c r="I10" s="30">
+      <c r="I10" s="60">
+        <f t="shared" ref="I9:I13" si="4">D10*E10</f>
+        <v>1739</v>
+      </c>
+      <c r="J10" s="60">
         <f t="shared" si="0"/>
-        <v>1739</v>
-      </c>
-      <c r="J10" s="30">
-        <f t="shared" si="1"/>
         <v>5150.1153846153848</v>
       </c>
-      <c r="K10" s="30">
+      <c r="K10" s="60">
         <f>J10*'Справочник - з.плата'!$B$2</f>
         <v>669.51499999999999</v>
       </c>
-      <c r="L10" s="30">
+      <c r="L10" s="60">
         <f>J10*'Справочник - з.плата'!$B$3</f>
         <v>51.501153846153848</v>
       </c>
-      <c r="M10" s="30">
+      <c r="M10" s="60">
+        <f t="shared" si="1"/>
+        <v>721.01615384615388</v>
+      </c>
+      <c r="N10" s="61">
         <f t="shared" si="2"/>
-        <v>721.01615384615388</v>
-      </c>
-      <c r="N10" s="35">
-        <f t="shared" si="3"/>
         <v>4429.0992307692304</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="B11" s="34" t="s">
+      <c r="B11" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="C11" s="27" t="s">
+      <c r="C11" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="D11" s="27">
+      <c r="D11" s="20">
         <v>8176</v>
       </c>
-      <c r="E11" s="29">
+      <c r="E11" s="21">
         <v>0.19</v>
       </c>
-      <c r="F11" s="27"/>
-      <c r="G11" s="30">
+      <c r="F11" s="20"/>
+      <c r="G11" s="60">
         <f>D11/$B$3*($B$3 - F11)</f>
         <v>8176</v>
       </c>
-      <c r="H11" s="30">
+      <c r="H11" s="60">
         <f>D11/$B$3 * F11 *'Справочник - з.плата'!$B$4</f>
         <v>0</v>
       </c>
-      <c r="I11" s="30">
+      <c r="I11" s="60">
         <f>D11*E11</f>
         <v>1553.44</v>
       </c>
-      <c r="J11" s="30">
-        <f t="shared" si="1"/>
+      <c r="J11" s="60">
+        <f t="shared" si="0"/>
         <v>9729.44</v>
       </c>
-      <c r="K11" s="30">
+      <c r="K11" s="60">
         <f>J11*'Справочник - з.плата'!$B$2</f>
         <v>1264.8272000000002</v>
       </c>
-      <c r="L11" s="30">
+      <c r="L11" s="60">
         <f>J11*'Справочник - з.плата'!$B$3</f>
         <v>97.29440000000001</v>
       </c>
-      <c r="M11" s="30">
+      <c r="M11" s="60">
+        <f t="shared" si="1"/>
+        <v>1362.1216000000002</v>
+      </c>
+      <c r="N11" s="61">
         <f t="shared" si="2"/>
-        <v>1362.1216000000002</v>
-      </c>
-      <c r="N11" s="35">
+        <v>8367.3184000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B12" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="D12" s="20">
+        <v>1867</v>
+      </c>
+      <c r="E12" s="21">
+        <v>0.9</v>
+      </c>
+      <c r="F12" s="20"/>
+      <c r="G12" s="60">
         <f t="shared" si="3"/>
-        <v>8367.3184000000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="B12" s="34" t="s">
-        <v>58</v>
-      </c>
-      <c r="C12" s="27" t="s">
-        <v>64</v>
-      </c>
-      <c r="D12" s="27">
         <v>1867</v>
       </c>
-      <c r="E12" s="29">
-        <v>0.9</v>
-      </c>
-      <c r="F12" s="27"/>
-      <c r="G12" s="30">
-        <f t="shared" si="4"/>
-        <v>1867</v>
-      </c>
-      <c r="H12" s="30">
+      <c r="H12" s="60">
         <f>D12/$B$3 * F12 *'Справочник - з.плата'!$B$4</f>
         <v>0</v>
       </c>
-      <c r="I12" s="30">
+      <c r="I12" s="60">
+        <f t="shared" si="4"/>
+        <v>1680.3</v>
+      </c>
+      <c r="J12" s="60">
         <f t="shared" si="0"/>
-        <v>1680.3</v>
-      </c>
-      <c r="J12" s="30">
-        <f t="shared" si="1"/>
         <v>3547.3</v>
       </c>
-      <c r="K12" s="30">
+      <c r="K12" s="60">
         <f>J12*'Справочник - з.плата'!$B$2</f>
         <v>461.14900000000006</v>
       </c>
-      <c r="L12" s="30">
+      <c r="L12" s="60">
         <f>J12*'Справочник - з.плата'!$B$3</f>
         <v>35.473000000000006</v>
       </c>
-      <c r="M12" s="30">
+      <c r="M12" s="60">
+        <f t="shared" si="1"/>
+        <v>496.62200000000007</v>
+      </c>
+      <c r="N12" s="61">
         <f t="shared" si="2"/>
-        <v>496.62200000000007</v>
-      </c>
-      <c r="N12" s="35">
+        <v>3050.6779999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B13" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="D13" s="25">
+        <v>7777</v>
+      </c>
+      <c r="E13" s="26">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="F13" s="25">
+        <v>7</v>
+      </c>
+      <c r="G13" s="62">
         <f t="shared" si="3"/>
-        <v>3050.6779999999999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="36" t="s">
-        <v>59</v>
-      </c>
-      <c r="C13" s="37" t="s">
-        <v>65</v>
-      </c>
-      <c r="D13" s="37">
-        <v>7777</v>
-      </c>
-      <c r="E13" s="38">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="F13" s="37">
-        <v>7</v>
-      </c>
-      <c r="G13" s="39">
-        <f t="shared" si="4"/>
         <v>5683.1923076923085</v>
       </c>
-      <c r="H13" s="39">
+      <c r="H13" s="62">
         <f>D13/$B$3 * F13 *'Справочник - з.плата'!$B$4</f>
         <v>1570.3557692307693</v>
       </c>
-      <c r="I13" s="39">
+      <c r="I13" s="62">
+        <f t="shared" si="4"/>
+        <v>544.3900000000001</v>
+      </c>
+      <c r="J13" s="62">
         <f t="shared" si="0"/>
-        <v>544.3900000000001</v>
-      </c>
-      <c r="J13" s="39">
-        <f t="shared" si="1"/>
         <v>7797.9380769230784</v>
       </c>
-      <c r="K13" s="39">
+      <c r="K13" s="62">
         <f>J13*'Справочник - з.плата'!$B$2</f>
         <v>1013.7319500000002</v>
       </c>
-      <c r="L13" s="39">
+      <c r="L13" s="62">
         <f>J13*'Справочник - з.плата'!$B$3</f>
         <v>77.979380769230787</v>
       </c>
-      <c r="M13" s="39">
-        <f t="shared" si="2"/>
+      <c r="M13" s="62">
+        <f t="shared" si="1"/>
         <v>1091.7113307692309</v>
       </c>
-      <c r="N13" s="40">
+      <c r="N13" s="63">
         <f>J13-M13</f>
         <v>6706.2267461538477</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="41" t="s">
+      <c r="B14" s="42" t="s">
         <v>67</v>
       </c>
-      <c r="C14" s="42"/>
-      <c r="D14" s="42"/>
-      <c r="E14" s="42"/>
-      <c r="F14" s="42"/>
-      <c r="G14" s="43">
+      <c r="C14" s="43"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="43"/>
+      <c r="F14" s="43"/>
+      <c r="G14" s="64">
         <f>SUM(G8:G13)</f>
         <v>31917.423076923078</v>
       </c>
-      <c r="H14" s="43">
-        <f t="shared" ref="H14:N14" si="5">SUM(H8:H13)</f>
+      <c r="H14" s="64">
+        <f t="shared" ref="H14:M14" si="5">SUM(H8:H13)</f>
         <v>2160.4326923076924</v>
       </c>
-      <c r="I14" s="43">
+      <c r="I14" s="64">
         <f t="shared" si="5"/>
         <v>7722.130000000001</v>
       </c>
-      <c r="J14" s="43">
+      <c r="J14" s="64">
         <f t="shared" si="5"/>
         <v>41799.985769230778</v>
       </c>
-      <c r="K14" s="43">
+      <c r="K14" s="64">
         <f t="shared" si="5"/>
         <v>5433.9981500000004</v>
       </c>
-      <c r="L14" s="43">
+      <c r="L14" s="64">
         <f t="shared" si="5"/>
         <v>417.99985769230773</v>
       </c>
-      <c r="M14" s="43">
+      <c r="M14" s="64">
         <f t="shared" si="5"/>
         <v>5851.9980076923084</v>
       </c>
-      <c r="N14" s="44">
+      <c r="N14" s="65">
         <f>SUM(N8:N13)</f>
         <v>35947.987761538461</v>
       </c>
     </row>
+    <row r="17" spans="7:10" x14ac:dyDescent="0.35">
+      <c r="G17" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H17" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="I17" s="41"/>
+      <c r="J17" s="1" t="str">
+        <f>'Справочник - з.плата'!B1</f>
+        <v>Комова В. Г.</v>
+      </c>
+    </row>
+    <row r="18" spans="7:10" x14ac:dyDescent="0.35">
+      <c r="G18" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="H18" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="I18" s="41"/>
+      <c r="J18" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="12">
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="H18:I18"/>
     <mergeCell ref="B14:F14"/>
     <mergeCell ref="G6:J6"/>
     <mergeCell ref="K6:M6"/>
@@ -3261,7 +3404,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3276,7 +3419,7 @@
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3289,597 +3432,597 @@
     <col min="9" max="9" width="10.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="31" x14ac:dyDescent="0.35">
-      <c r="A1" s="51" t="s">
+    <row r="1" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="27" t="s">
         <v>85</v>
       </c>
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="51" t="s">
+      <c r="C1" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="D1" s="51" t="s">
+      <c r="D1" s="27" t="s">
         <v>87</v>
       </c>
-      <c r="E1" s="51" t="s">
+      <c r="E1" s="27" t="s">
         <v>88</v>
       </c>
-      <c r="F1" s="51" t="s">
+      <c r="F1" s="27" t="s">
         <v>93</v>
       </c>
-      <c r="G1" s="51" t="s">
+      <c r="G1" s="27" t="s">
         <v>90</v>
       </c>
-      <c r="H1" s="51" t="s">
+      <c r="H1" s="27" t="s">
         <v>91</v>
       </c>
-      <c r="I1" s="51" t="s">
+      <c r="I1" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="J1" s="51" t="s">
+      <c r="J1" s="27" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="52">
+      <c r="A2" s="28">
         <v>1</v>
       </c>
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="C2" s="52">
+      <c r="C2" s="28">
         <v>30</v>
       </c>
-      <c r="D2" s="52">
+      <c r="D2" s="28">
         <v>17</v>
       </c>
-      <c r="E2" s="52">
+      <c r="E2" s="28">
         <v>7</v>
       </c>
-      <c r="F2" s="52">
+      <c r="F2" s="28">
         <v>6</v>
       </c>
-      <c r="G2" s="54">
+      <c r="G2" s="30">
         <v>47</v>
       </c>
-      <c r="H2" s="54">
+      <c r="H2" s="30">
         <v>28</v>
       </c>
-      <c r="I2" s="54">
+      <c r="I2" s="30">
         <f>G2-H2</f>
         <v>19</v>
       </c>
-      <c r="J2" s="51">
+      <c r="J2" s="27">
         <f>D2*3 +E2</f>
         <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="52">
+      <c r="A3" s="28">
         <v>2</v>
       </c>
-      <c r="B3" s="53" t="s">
+      <c r="B3" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="C3" s="52">
+      <c r="C3" s="28">
         <v>30</v>
       </c>
-      <c r="D3" s="52">
+      <c r="D3" s="28">
         <v>15</v>
       </c>
-      <c r="E3" s="52">
+      <c r="E3" s="28">
         <v>13</v>
       </c>
-      <c r="F3" s="52">
+      <c r="F3" s="28">
         <v>2</v>
       </c>
-      <c r="G3" s="54">
+      <c r="G3" s="30">
         <v>60</v>
       </c>
-      <c r="H3" s="54">
+      <c r="H3" s="30">
         <v>36</v>
       </c>
-      <c r="I3" s="54">
+      <c r="I3" s="30">
         <f t="shared" ref="I3:I17" si="0">G3-H3</f>
         <v>24</v>
       </c>
-      <c r="J3" s="51">
+      <c r="J3" s="27">
         <f t="shared" ref="J3:J17" si="1">D3*3 +E3</f>
         <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="52">
+      <c r="A4" s="28">
         <v>3</v>
       </c>
-      <c r="B4" s="53" t="s">
+      <c r="B4" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="C4" s="52">
+      <c r="C4" s="28">
         <v>30</v>
       </c>
-      <c r="D4" s="52">
+      <c r="D4" s="28">
         <v>15</v>
       </c>
-      <c r="E4" s="52">
+      <c r="E4" s="28">
         <v>8</v>
       </c>
-      <c r="F4" s="52">
+      <c r="F4" s="28">
         <v>7</v>
       </c>
-      <c r="G4" s="54">
+      <c r="G4" s="30">
         <v>47</v>
       </c>
-      <c r="H4" s="54">
+      <c r="H4" s="30">
         <v>34</v>
       </c>
-      <c r="I4" s="54">
+      <c r="I4" s="30">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="J4" s="51">
+      <c r="J4" s="27">
         <f t="shared" si="1"/>
         <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="52">
+      <c r="A5" s="28">
         <v>4</v>
       </c>
-      <c r="B5" s="53" t="s">
+      <c r="B5" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="C5" s="52">
+      <c r="C5" s="28">
         <v>30</v>
       </c>
-      <c r="D5" s="52">
+      <c r="D5" s="28">
         <v>13</v>
       </c>
-      <c r="E5" s="52">
+      <c r="E5" s="28">
         <v>11</v>
       </c>
-      <c r="F5" s="52">
+      <c r="F5" s="28">
         <v>6</v>
       </c>
-      <c r="G5" s="54">
+      <c r="G5" s="30">
         <v>42</v>
       </c>
-      <c r="H5" s="54">
+      <c r="H5" s="30">
         <v>30</v>
       </c>
-      <c r="I5" s="54">
+      <c r="I5" s="30">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="J5" s="51">
+      <c r="J5" s="27">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="52">
+      <c r="A6" s="28">
         <v>5</v>
       </c>
-      <c r="B6" s="53" t="s">
+      <c r="B6" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="C6" s="52">
+      <c r="C6" s="28">
         <v>30</v>
       </c>
-      <c r="D6" s="52">
+      <c r="D6" s="28">
         <v>13</v>
       </c>
-      <c r="E6" s="52">
+      <c r="E6" s="28">
         <v>7</v>
       </c>
-      <c r="F6" s="52">
+      <c r="F6" s="28">
         <v>10</v>
       </c>
-      <c r="G6" s="54">
+      <c r="G6" s="30">
         <v>43</v>
       </c>
-      <c r="H6" s="54">
+      <c r="H6" s="30">
         <v>37</v>
       </c>
-      <c r="I6" s="54">
+      <c r="I6" s="30">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="J6" s="51">
+      <c r="J6" s="27">
         <f t="shared" si="1"/>
         <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="52">
+      <c r="A7" s="28">
         <v>6</v>
       </c>
-      <c r="B7" s="53" t="s">
+      <c r="B7" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="C7" s="52">
+      <c r="C7" s="28">
         <v>30</v>
       </c>
-      <c r="D7" s="52">
+      <c r="D7" s="28">
         <v>10</v>
       </c>
-      <c r="E7" s="52">
+      <c r="E7" s="28">
         <v>13</v>
       </c>
-      <c r="F7" s="52">
+      <c r="F7" s="28">
         <v>7</v>
       </c>
-      <c r="G7" s="54">
+      <c r="G7" s="30">
         <v>41</v>
       </c>
-      <c r="H7" s="54">
+      <c r="H7" s="30">
         <v>37</v>
       </c>
-      <c r="I7" s="54">
+      <c r="I7" s="30">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="J7" s="51">
+      <c r="J7" s="27">
         <f t="shared" si="1"/>
         <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="52">
+      <c r="A8" s="28">
         <v>7</v>
       </c>
-      <c r="B8" s="53" t="s">
+      <c r="B8" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="C8" s="52">
+      <c r="C8" s="28">
         <v>30</v>
       </c>
-      <c r="D8" s="52">
+      <c r="D8" s="28">
         <v>12</v>
       </c>
-      <c r="E8" s="52">
+      <c r="E8" s="28">
         <v>5</v>
       </c>
-      <c r="F8" s="52">
+      <c r="F8" s="28">
         <v>13</v>
       </c>
-      <c r="G8" s="54">
+      <c r="G8" s="30">
         <v>37</v>
       </c>
-      <c r="H8" s="54">
+      <c r="H8" s="30">
         <v>39</v>
       </c>
-      <c r="I8" s="54">
+      <c r="I8" s="30">
         <f t="shared" si="0"/>
         <v>-2</v>
       </c>
-      <c r="J8" s="51">
+      <c r="J8" s="27">
         <f t="shared" si="1"/>
         <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="52">
+      <c r="A9" s="28">
         <v>8</v>
       </c>
-      <c r="B9" s="53" t="s">
+      <c r="B9" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="C9" s="52">
+      <c r="C9" s="28">
         <v>30</v>
       </c>
-      <c r="D9" s="52">
+      <c r="D9" s="28">
         <v>11</v>
       </c>
-      <c r="E9" s="52">
+      <c r="E9" s="28">
         <v>8</v>
       </c>
-      <c r="F9" s="52">
+      <c r="F9" s="28">
         <v>11</v>
       </c>
-      <c r="G9" s="54">
+      <c r="G9" s="30">
         <v>35</v>
       </c>
-      <c r="H9" s="54">
+      <c r="H9" s="30">
         <v>33</v>
       </c>
-      <c r="I9" s="54">
+      <c r="I9" s="30">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="J9" s="51">
+      <c r="J9" s="27">
         <f t="shared" si="1"/>
         <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="52">
+      <c r="A10" s="28">
         <v>9</v>
       </c>
-      <c r="B10" s="53" t="s">
+      <c r="B10" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="C10" s="52">
+      <c r="C10" s="28">
         <v>30</v>
       </c>
-      <c r="D10" s="52">
+      <c r="D10" s="28">
         <v>11</v>
       </c>
-      <c r="E10" s="52">
+      <c r="E10" s="28">
         <v>8</v>
       </c>
-      <c r="F10" s="52">
+      <c r="F10" s="28">
         <v>11</v>
       </c>
-      <c r="G10" s="54">
+      <c r="G10" s="30">
         <v>33</v>
       </c>
-      <c r="H10" s="54">
+      <c r="H10" s="30">
         <v>32</v>
       </c>
-      <c r="I10" s="54">
+      <c r="I10" s="30">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="J10" s="51">
+      <c r="J10" s="27">
         <f t="shared" si="1"/>
         <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="52">
+      <c r="A11" s="28">
         <v>10</v>
       </c>
-      <c r="B11" s="53" t="s">
+      <c r="B11" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="C11" s="52">
+      <c r="C11" s="28">
         <v>30</v>
       </c>
-      <c r="D11" s="52">
+      <c r="D11" s="28">
         <v>10</v>
       </c>
-      <c r="E11" s="52">
+      <c r="E11" s="28">
         <v>8</v>
       </c>
-      <c r="F11" s="52">
+      <c r="F11" s="28">
         <v>12</v>
       </c>
-      <c r="G11" s="54">
+      <c r="G11" s="30">
         <v>37</v>
       </c>
-      <c r="H11" s="54">
+      <c r="H11" s="30">
         <v>35</v>
       </c>
-      <c r="I11" s="54">
+      <c r="I11" s="30">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="J11" s="51">
+      <c r="J11" s="27">
         <f t="shared" si="1"/>
         <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="52">
+      <c r="A12" s="28">
         <v>11</v>
       </c>
-      <c r="B12" s="53" t="s">
+      <c r="B12" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="C12" s="52">
+      <c r="C12" s="28">
         <v>30</v>
       </c>
-      <c r="D12" s="52">
+      <c r="D12" s="28">
         <v>7</v>
       </c>
-      <c r="E12" s="52">
+      <c r="E12" s="28">
         <v>16</v>
       </c>
-      <c r="F12" s="52">
+      <c r="F12" s="28">
         <v>7</v>
       </c>
-      <c r="G12" s="54">
+      <c r="G12" s="30">
         <v>29</v>
       </c>
-      <c r="H12" s="54">
+      <c r="H12" s="30">
         <v>24</v>
       </c>
-      <c r="I12" s="54">
+      <c r="I12" s="30">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="J12" s="51">
+      <c r="J12" s="27">
         <f t="shared" si="1"/>
         <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="52">
+      <c r="A13" s="28">
         <v>12</v>
       </c>
-      <c r="B13" s="53" t="s">
+      <c r="B13" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="C13" s="52">
+      <c r="C13" s="28">
         <v>30</v>
       </c>
-      <c r="D13" s="52">
+      <c r="D13" s="28">
         <v>10</v>
       </c>
-      <c r="E13" s="52">
+      <c r="E13" s="28">
         <v>6</v>
       </c>
-      <c r="F13" s="52">
+      <c r="F13" s="28">
         <v>14</v>
       </c>
-      <c r="G13" s="54">
-        <v>42</v>
-      </c>
-      <c r="H13" s="54">
+      <c r="G13" s="30">
+        <v>1</v>
+      </c>
+      <c r="H13" s="30">
         <v>48</v>
       </c>
-      <c r="I13" s="54">
+      <c r="I13" s="30">
         <f t="shared" si="0"/>
-        <v>-6</v>
-      </c>
-      <c r="J13" s="51">
+        <v>-47</v>
+      </c>
+      <c r="J13" s="27">
         <f t="shared" si="1"/>
         <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="52">
+      <c r="A14" s="28">
         <v>13</v>
       </c>
-      <c r="B14" s="53" t="s">
+      <c r="B14" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="C14" s="52">
+      <c r="C14" s="28">
         <v>30</v>
       </c>
-      <c r="D14" s="52">
+      <c r="D14" s="28">
         <v>8</v>
       </c>
-      <c r="E14" s="52">
+      <c r="E14" s="28">
         <v>11</v>
       </c>
-      <c r="F14" s="52">
+      <c r="F14" s="28">
         <v>11</v>
       </c>
-      <c r="G14" s="54">
+      <c r="G14" s="30">
         <v>22</v>
       </c>
-      <c r="H14" s="54">
+      <c r="H14" s="30">
         <v>36</v>
       </c>
-      <c r="I14" s="54">
+      <c r="I14" s="30">
         <f t="shared" si="0"/>
         <v>-14</v>
       </c>
-      <c r="J14" s="51">
+      <c r="J14" s="27">
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="52">
+      <c r="A15" s="28">
         <v>14</v>
       </c>
-      <c r="B15" s="53" t="s">
+      <c r="B15" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="C15" s="52">
+      <c r="C15" s="28">
         <v>30</v>
       </c>
-      <c r="D15" s="52">
+      <c r="D15" s="28">
         <v>8</v>
       </c>
-      <c r="E15" s="52">
+      <c r="E15" s="28">
         <v>10</v>
       </c>
-      <c r="F15" s="52">
+      <c r="F15" s="28">
         <v>12</v>
       </c>
-      <c r="G15" s="54">
+      <c r="G15" s="30">
         <v>31</v>
       </c>
-      <c r="H15" s="54">
+      <c r="H15" s="30">
         <v>40</v>
       </c>
-      <c r="I15" s="54">
+      <c r="I15" s="30">
         <f t="shared" si="0"/>
         <v>-9</v>
       </c>
-      <c r="J15" s="51">
+      <c r="J15" s="27">
         <f t="shared" si="1"/>
         <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="52">
+      <c r="A16" s="28">
         <v>15</v>
       </c>
-      <c r="B16" s="53" t="s">
+      <c r="B16" s="29" t="s">
         <v>83</v>
       </c>
-      <c r="C16" s="52">
+      <c r="C16" s="28">
         <v>30</v>
       </c>
-      <c r="D16" s="52">
+      <c r="D16" s="28">
         <v>3</v>
       </c>
-      <c r="E16" s="52">
+      <c r="E16" s="28">
         <v>13</v>
       </c>
-      <c r="F16" s="52">
+      <c r="F16" s="28">
         <v>14</v>
       </c>
-      <c r="G16" s="54">
+      <c r="G16" s="30">
         <v>22</v>
       </c>
-      <c r="H16" s="54">
+      <c r="H16" s="30">
         <v>40</v>
       </c>
-      <c r="I16" s="54">
+      <c r="I16" s="30">
         <f t="shared" si="0"/>
         <v>-18</v>
       </c>
-      <c r="J16" s="51">
+      <c r="J16" s="27">
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="52">
+      <c r="A17" s="28">
         <v>16</v>
       </c>
-      <c r="B17" s="53" t="s">
+      <c r="B17" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="C17" s="52">
+      <c r="C17" s="28">
         <v>30</v>
       </c>
-      <c r="D17" s="52">
+      <c r="D17" s="28">
         <v>1</v>
       </c>
-      <c r="E17" s="52">
+      <c r="E17" s="28">
         <v>8</v>
       </c>
-      <c r="F17" s="52">
+      <c r="F17" s="28">
         <v>21</v>
       </c>
-      <c r="G17" s="54">
+      <c r="G17" s="30">
         <v>17</v>
       </c>
-      <c r="H17" s="54">
+      <c r="H17" s="30">
         <v>56</v>
       </c>
-      <c r="I17" s="54">
+      <c r="I17" s="30">
         <f t="shared" si="0"/>
         <v>-39</v>
       </c>
-      <c r="J17" s="51">
+      <c r="J17" s="27">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="D2:D17">
-    <cfRule type="expression" priority="8">
+    <cfRule type="expression" priority="11">
       <formula>MAX($D$2:$D$17)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I17">
-    <cfRule type="top10" dxfId="0" priority="4" rank="3"/>
-    <cfRule type="top10" dxfId="1" priority="3" bottom="1" rank="3"/>
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+    <cfRule type="top10" dxfId="8" priority="7" rank="3"/>
+    <cfRule type="top10" dxfId="7" priority="6" bottom="1" rank="3"/>
+    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J17">
-    <cfRule type="dataBar" priority="2">
+    <cfRule type="dataBar" priority="5">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -3892,12 +4035,32 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="G2:G17">
+    <cfRule type="top10" priority="3" rank="1"/>
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+      <formula>MAX($G$2:$G$17)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>MIN($G$2:$G$17)</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="7" id="{DEBCCACF-F3F6-41AF-9E43-2FA6CB38B7E4}">
+          <x14:cfRule type="dataBar" id="{98BA74FC-DA56-4D76-819E-2CBC10AE604B}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>J2:J17</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="10" id="{DEBCCACF-F3F6-41AF-9E43-2FA6CB38B7E4}">
             <x14:iconSet iconSet="3Symbols2" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -3916,7 +4079,7 @@
           <xm:sqref>D2:D17</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="6" id="{81CBF0D8-6188-4CB1-8A62-CF8E1A657BF9}">
+          <x14:cfRule type="iconSet" priority="9" id="{81CBF0D8-6188-4CB1-8A62-CF8E1A657BF9}">
             <x14:iconSet iconSet="3Symbols2" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -3935,7 +4098,7 @@
           <xm:sqref>E2:E17</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="5" id="{CE55B10F-5421-4A38-91B3-903DF81C3AEE}">
+          <x14:cfRule type="iconSet" priority="8" id="{CE55B10F-5421-4A38-91B3-903DF81C3AEE}">
             <x14:iconSet iconSet="3Symbols2" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -3953,17 +4116,6 @@
           </x14:cfRule>
           <xm:sqref>F2:F17</xm:sqref>
         </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{98BA74FC-DA56-4D76-819E-2CBC10AE604B}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>J2:J17</xm:sqref>
-        </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
   </extLst>
@@ -3975,7 +4127,7 @@
   <dimension ref="A1:O22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3985,19 +4137,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="53" t="s">
         <v>94</v>
       </c>
-      <c r="E1" s="26"/>
-      <c r="F1" s="55" t="str">
+      <c r="E1" s="53"/>
+      <c r="F1" s="31" t="str">
         <f>_xlfn.IFS(MONTH(A3) = 9, ROMAN(1),MONTH(A3) = 10, ROMAN(1),MONTH(A3) = 11, ROMAN(1),MONTH(A3) = 12, ROMAN(2),MONTH(A3) = 1, ROMAN(2),MONTH(A3) = 2, ROMAN(2),MONTH(A3) = 3, ROMAN(3),MONTH(A3) = 4, ROMAN(3),MONTH(A3) = 5, ROMAN(3))</f>
         <v>I</v>
       </c>
-      <c r="L1" s="26" t="s">
+      <c r="L1" s="53" t="s">
         <v>94</v>
       </c>
-      <c r="M1" s="26"/>
-      <c r="N1" s="56" t="str">
+      <c r="M1" s="53"/>
+      <c r="N1" s="32" t="str">
         <f>_xlfn.IFS(MONTH(I3) = 9, ROMAN(1),MONTH(I3) = 10, ROMAN(1),MONTH(I3) = 11, ROMAN(1),MONTH(I3) = 12, ROMAN(2),MONTH(I3) = 1, ROMAN(2),MONTH(I3) = 2, ROMAN(2),MONTH(I3) = 3, ROMAN(3),MONTH(I3) = 4, ROMAN(3),MONTH(I3) = 5, ROMAN(3))</f>
         <v>II</v>
       </c>
@@ -4006,19 +4158,19 @@
       <c r="A2" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="33" t="s">
         <v>96</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="D2" s="31" t="s">
+      <c r="D2" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="E2" s="31" t="s">
+      <c r="E2" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="F2" s="31" t="s">
+      <c r="F2" s="22" t="s">
         <v>100</v>
       </c>
       <c r="G2" s="13" t="s">
@@ -4027,19 +4179,19 @@
       <c r="I2" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="J2" s="58" t="s">
+      <c r="J2" s="33" t="s">
         <v>96</v>
       </c>
-      <c r="K2" s="31" t="s">
+      <c r="K2" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="L2" s="31" t="s">
+      <c r="L2" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="M2" s="31" t="s">
+      <c r="M2" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="N2" s="31" t="s">
+      <c r="N2" s="22" t="s">
         <v>100</v>
       </c>
       <c r="O2" s="13" t="s">
@@ -4047,458 +4199,458 @@
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A3" s="59">
+      <c r="A3" s="54">
         <f>DATE(19,11,28)</f>
         <v>7272</v>
       </c>
-      <c r="B3" s="57" t="s">
+      <c r="B3" s="56" t="s">
         <v>102</v>
       </c>
-      <c r="C3" s="27">
+      <c r="C3" s="20">
         <v>1</v>
       </c>
-      <c r="D3" s="27" t="s">
+      <c r="D3" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="60"/>
-      <c r="I3" s="59">
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="34"/>
+      <c r="I3" s="54">
         <f>A17+1</f>
         <v>7275</v>
       </c>
-      <c r="J3" s="57" t="s">
+      <c r="J3" s="56" t="s">
         <v>104</v>
       </c>
-      <c r="K3" s="27">
+      <c r="K3" s="20">
         <v>1</v>
       </c>
-      <c r="L3" s="27" t="s">
+      <c r="L3" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="M3" s="27"/>
-      <c r="N3" s="27"/>
-      <c r="O3" s="60"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="20"/>
+      <c r="O3" s="34"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A4" s="59"/>
-      <c r="B4" s="57"/>
-      <c r="C4" s="27">
+      <c r="A4" s="54"/>
+      <c r="B4" s="56"/>
+      <c r="C4" s="20">
         <v>2</v>
       </c>
-      <c r="D4" s="27" t="s">
+      <c r="D4" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="60"/>
-      <c r="I4" s="59"/>
-      <c r="J4" s="57"/>
-      <c r="K4" s="27">
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="34"/>
+      <c r="I4" s="54"/>
+      <c r="J4" s="56"/>
+      <c r="K4" s="20">
         <v>2</v>
       </c>
-      <c r="L4" s="27" t="s">
+      <c r="L4" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="M4" s="27"/>
-      <c r="N4" s="27"/>
-      <c r="O4" s="60"/>
+      <c r="M4" s="20"/>
+      <c r="N4" s="20"/>
+      <c r="O4" s="34"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A5" s="59"/>
-      <c r="B5" s="57"/>
-      <c r="C5" s="27">
+      <c r="A5" s="54"/>
+      <c r="B5" s="56"/>
+      <c r="C5" s="20">
         <v>3</v>
       </c>
-      <c r="D5" s="27" t="s">
+      <c r="D5" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="60"/>
-      <c r="I5" s="59"/>
-      <c r="J5" s="57"/>
-      <c r="K5" s="27">
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="34"/>
+      <c r="I5" s="54"/>
+      <c r="J5" s="56"/>
+      <c r="K5" s="20">
         <v>3</v>
       </c>
-      <c r="L5" s="27" t="s">
+      <c r="L5" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="M5" s="27"/>
-      <c r="N5" s="27"/>
-      <c r="O5" s="60"/>
+      <c r="M5" s="20"/>
+      <c r="N5" s="20"/>
+      <c r="O5" s="34"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A6" s="59"/>
-      <c r="B6" s="57"/>
-      <c r="C6" s="27">
+      <c r="A6" s="54"/>
+      <c r="B6" s="56"/>
+      <c r="C6" s="20">
         <v>4</v>
       </c>
-      <c r="D6" s="27" t="s">
+      <c r="D6" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="60"/>
-      <c r="I6" s="59"/>
-      <c r="J6" s="57"/>
-      <c r="K6" s="27">
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="34"/>
+      <c r="I6" s="54"/>
+      <c r="J6" s="56"/>
+      <c r="K6" s="20">
         <v>4</v>
       </c>
-      <c r="L6" s="27" t="s">
+      <c r="L6" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="M6" s="27"/>
-      <c r="N6" s="27"/>
-      <c r="O6" s="60"/>
+      <c r="M6" s="20"/>
+      <c r="N6" s="20"/>
+      <c r="O6" s="34"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A7" s="59"/>
-      <c r="B7" s="57"/>
-      <c r="C7" s="27">
+      <c r="A7" s="54"/>
+      <c r="B7" s="56"/>
+      <c r="C7" s="20">
         <v>5</v>
       </c>
-      <c r="D7" s="27" t="s">
+      <c r="D7" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="60"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="57"/>
-      <c r="K7" s="27">
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="34"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="56"/>
+      <c r="K7" s="20">
         <v>5</v>
       </c>
-      <c r="L7" s="27" t="s">
+      <c r="L7" s="20" t="s">
         <v>111</v>
       </c>
-      <c r="M7" s="27"/>
-      <c r="N7" s="27"/>
-      <c r="O7" s="60"/>
+      <c r="M7" s="20"/>
+      <c r="N7" s="20"/>
+      <c r="O7" s="34"/>
     </row>
     <row r="8" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="61"/>
-      <c r="B8" s="62"/>
-      <c r="C8" s="37">
+      <c r="A8" s="55"/>
+      <c r="B8" s="57"/>
+      <c r="C8" s="25">
         <v>6</v>
       </c>
-      <c r="D8" s="37" t="s">
+      <c r="D8" s="25" t="s">
         <v>112</v>
       </c>
-      <c r="E8" s="37"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="63"/>
-      <c r="I8" s="61"/>
-      <c r="J8" s="62"/>
-      <c r="K8" s="37">
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="35"/>
+      <c r="I8" s="55"/>
+      <c r="J8" s="57"/>
+      <c r="K8" s="25">
         <v>6</v>
       </c>
-      <c r="L8" s="37" t="s">
+      <c r="L8" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="M8" s="37"/>
-      <c r="N8" s="37"/>
-      <c r="O8" s="63"/>
+      <c r="M8" s="25"/>
+      <c r="N8" s="25"/>
+      <c r="O8" s="35"/>
     </row>
     <row r="9" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="10" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A10" s="64">
+      <c r="A10" s="58">
         <f>A3+1</f>
         <v>7273</v>
       </c>
-      <c r="B10" s="65" t="s">
+      <c r="B10" s="59" t="s">
         <v>114</v>
       </c>
-      <c r="C10" s="31">
+      <c r="C10" s="22">
         <v>1</v>
       </c>
-      <c r="D10" s="31" t="s">
+      <c r="D10" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
       <c r="G10" s="13"/>
-      <c r="I10" s="64">
+      <c r="I10" s="58">
         <f>I3+1</f>
         <v>7276</v>
       </c>
-      <c r="J10" s="65" t="s">
+      <c r="J10" s="59" t="s">
         <v>116</v>
       </c>
-      <c r="K10" s="31">
+      <c r="K10" s="22">
         <v>1</v>
       </c>
-      <c r="L10" s="31" t="s">
+      <c r="L10" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="M10" s="31"/>
-      <c r="N10" s="31"/>
+      <c r="M10" s="22"/>
+      <c r="N10" s="22"/>
       <c r="O10" s="13"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A11" s="59"/>
-      <c r="B11" s="57"/>
-      <c r="C11" s="27">
+      <c r="A11" s="54"/>
+      <c r="B11" s="56"/>
+      <c r="C11" s="20">
         <v>2</v>
       </c>
-      <c r="D11" s="27" t="s">
+      <c r="D11" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="E11" s="27"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="60"/>
-      <c r="I11" s="59"/>
-      <c r="J11" s="57"/>
-      <c r="K11" s="27">
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="34"/>
+      <c r="I11" s="54"/>
+      <c r="J11" s="56"/>
+      <c r="K11" s="20">
         <v>2</v>
       </c>
-      <c r="L11" s="27" t="s">
+      <c r="L11" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="M11" s="27"/>
-      <c r="N11" s="27"/>
-      <c r="O11" s="60"/>
+      <c r="M11" s="20"/>
+      <c r="N11" s="20"/>
+      <c r="O11" s="34"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A12" s="59"/>
-      <c r="B12" s="57"/>
-      <c r="C12" s="27">
+      <c r="A12" s="54"/>
+      <c r="B12" s="56"/>
+      <c r="C12" s="20">
         <v>3</v>
       </c>
-      <c r="D12" s="27" t="s">
+      <c r="D12" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="E12" s="27"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="60"/>
-      <c r="I12" s="59"/>
-      <c r="J12" s="57"/>
-      <c r="K12" s="27">
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="34"/>
+      <c r="I12" s="54"/>
+      <c r="J12" s="56"/>
+      <c r="K12" s="20">
         <v>3</v>
       </c>
-      <c r="L12" s="27" t="s">
+      <c r="L12" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="M12" s="27"/>
-      <c r="N12" s="27"/>
-      <c r="O12" s="60"/>
+      <c r="M12" s="20"/>
+      <c r="N12" s="20"/>
+      <c r="O12" s="34"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A13" s="59"/>
-      <c r="B13" s="57"/>
-      <c r="C13" s="27">
+      <c r="A13" s="54"/>
+      <c r="B13" s="56"/>
+      <c r="C13" s="20">
         <v>4</v>
       </c>
-      <c r="D13" s="27" t="s">
+      <c r="D13" s="20" t="s">
         <v>118</v>
       </c>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="60"/>
-      <c r="I13" s="59"/>
-      <c r="J13" s="57"/>
-      <c r="K13" s="27">
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="34"/>
+      <c r="I13" s="54"/>
+      <c r="J13" s="56"/>
+      <c r="K13" s="20">
         <v>4</v>
       </c>
-      <c r="L13" s="27" t="s">
+      <c r="L13" s="20" t="s">
         <v>115</v>
       </c>
-      <c r="M13" s="27"/>
-      <c r="N13" s="27"/>
-      <c r="O13" s="60"/>
+      <c r="M13" s="20"/>
+      <c r="N13" s="20"/>
+      <c r="O13" s="34"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A14" s="59"/>
-      <c r="B14" s="57"/>
-      <c r="C14" s="27">
+      <c r="A14" s="54"/>
+      <c r="B14" s="56"/>
+      <c r="C14" s="20">
         <v>5</v>
       </c>
-      <c r="D14" s="27" t="s">
+      <c r="D14" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="60"/>
-      <c r="I14" s="59"/>
-      <c r="J14" s="57"/>
-      <c r="K14" s="27">
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="34"/>
+      <c r="I14" s="54"/>
+      <c r="J14" s="56"/>
+      <c r="K14" s="20">
         <v>5</v>
       </c>
-      <c r="L14" s="27" t="s">
+      <c r="L14" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="M14" s="27"/>
-      <c r="N14" s="27"/>
-      <c r="O14" s="60"/>
+      <c r="M14" s="20"/>
+      <c r="N14" s="20"/>
+      <c r="O14" s="34"/>
     </row>
     <row r="15" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="61"/>
-      <c r="B15" s="62"/>
-      <c r="C15" s="37">
+      <c r="A15" s="55"/>
+      <c r="B15" s="57"/>
+      <c r="C15" s="25">
         <v>6</v>
       </c>
-      <c r="D15" s="37" t="s">
+      <c r="D15" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="E15" s="37"/>
-      <c r="F15" s="37"/>
-      <c r="G15" s="63"/>
-      <c r="I15" s="61"/>
-      <c r="J15" s="62"/>
-      <c r="K15" s="37">
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="35"/>
+      <c r="I15" s="55"/>
+      <c r="J15" s="57"/>
+      <c r="K15" s="25">
         <v>6</v>
       </c>
-      <c r="L15" s="37"/>
-      <c r="M15" s="37"/>
-      <c r="N15" s="37"/>
-      <c r="O15" s="63"/>
+      <c r="L15" s="25"/>
+      <c r="M15" s="25"/>
+      <c r="N15" s="25"/>
+      <c r="O15" s="35"/>
     </row>
     <row r="16" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="17" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A17" s="64">
+      <c r="A17" s="58">
         <f>A10+1</f>
         <v>7274</v>
       </c>
-      <c r="B17" s="65" t="s">
+      <c r="B17" s="59" t="s">
         <v>119</v>
       </c>
-      <c r="C17" s="31">
+      <c r="C17" s="22">
         <v>1</v>
       </c>
-      <c r="D17" s="31" t="s">
+      <c r="D17" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="E17" s="31"/>
-      <c r="F17" s="31"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
       <c r="G17" s="13"/>
-      <c r="I17" s="64">
+      <c r="I17" s="58">
         <f>I10+1</f>
         <v>7277</v>
       </c>
-      <c r="J17" s="65" t="s">
+      <c r="J17" s="59" t="s">
         <v>120</v>
       </c>
-      <c r="K17" s="31">
+      <c r="K17" s="22">
         <v>1</v>
       </c>
-      <c r="L17" s="31" t="s">
+      <c r="L17" s="22" t="s">
         <v>117</v>
       </c>
-      <c r="M17" s="31"/>
-      <c r="N17" s="31"/>
+      <c r="M17" s="22"/>
+      <c r="N17" s="22"/>
       <c r="O17" s="13"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A18" s="59"/>
-      <c r="B18" s="57"/>
-      <c r="C18" s="27">
+      <c r="A18" s="54"/>
+      <c r="B18" s="56"/>
+      <c r="C18" s="20">
         <v>2</v>
       </c>
-      <c r="D18" s="27" t="s">
+      <c r="D18" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="E18" s="27"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="60"/>
-      <c r="I18" s="59"/>
-      <c r="J18" s="57"/>
-      <c r="K18" s="27">
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="34"/>
+      <c r="I18" s="54"/>
+      <c r="J18" s="56"/>
+      <c r="K18" s="20">
         <v>2</v>
       </c>
-      <c r="L18" s="27" t="s">
+      <c r="L18" s="20" t="s">
         <v>118</v>
       </c>
-      <c r="M18" s="27"/>
-      <c r="N18" s="27"/>
-      <c r="O18" s="60"/>
+      <c r="M18" s="20"/>
+      <c r="N18" s="20"/>
+      <c r="O18" s="34"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A19" s="59"/>
-      <c r="B19" s="57"/>
-      <c r="C19" s="27">
+      <c r="A19" s="54"/>
+      <c r="B19" s="56"/>
+      <c r="C19" s="20">
         <v>3</v>
       </c>
-      <c r="D19" s="27" t="s">
+      <c r="D19" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="E19" s="27"/>
-      <c r="F19" s="27"/>
-      <c r="G19" s="60"/>
-      <c r="I19" s="59"/>
-      <c r="J19" s="57"/>
-      <c r="K19" s="27">
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="34"/>
+      <c r="I19" s="54"/>
+      <c r="J19" s="56"/>
+      <c r="K19" s="20">
         <v>3</v>
       </c>
-      <c r="L19" s="27" t="s">
+      <c r="L19" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="M19" s="27"/>
-      <c r="N19" s="27"/>
-      <c r="O19" s="60"/>
+      <c r="M19" s="20"/>
+      <c r="N19" s="20"/>
+      <c r="O19" s="34"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A20" s="59"/>
-      <c r="B20" s="57"/>
-      <c r="C20" s="27">
+      <c r="A20" s="54"/>
+      <c r="B20" s="56"/>
+      <c r="C20" s="20">
         <v>4</v>
       </c>
-      <c r="D20" s="27" t="s">
+      <c r="D20" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="E20" s="27"/>
-      <c r="F20" s="27"/>
-      <c r="G20" s="60"/>
-      <c r="I20" s="59"/>
-      <c r="J20" s="57"/>
-      <c r="K20" s="27">
+      <c r="E20" s="20"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="34"/>
+      <c r="I20" s="54"/>
+      <c r="J20" s="56"/>
+      <c r="K20" s="20">
         <v>4</v>
       </c>
-      <c r="L20" s="27"/>
-      <c r="M20" s="27"/>
-      <c r="N20" s="27"/>
-      <c r="O20" s="60"/>
+      <c r="L20" s="20"/>
+      <c r="M20" s="20"/>
+      <c r="N20" s="20"/>
+      <c r="O20" s="34"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A21" s="59"/>
-      <c r="B21" s="57"/>
-      <c r="C21" s="27">
+      <c r="A21" s="54"/>
+      <c r="B21" s="56"/>
+      <c r="C21" s="20">
         <v>5</v>
       </c>
-      <c r="D21" s="27" t="s">
+      <c r="D21" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="E21" s="27"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="60"/>
-      <c r="I21" s="59"/>
-      <c r="J21" s="57"/>
-      <c r="K21" s="27">
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="34"/>
+      <c r="I21" s="54"/>
+      <c r="J21" s="56"/>
+      <c r="K21" s="20">
         <v>5</v>
       </c>
-      <c r="L21" s="27"/>
-      <c r="M21" s="27"/>
-      <c r="N21" s="27"/>
-      <c r="O21" s="60"/>
+      <c r="L21" s="20"/>
+      <c r="M21" s="20"/>
+      <c r="N21" s="20"/>
+      <c r="O21" s="34"/>
     </row>
     <row r="22" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="61"/>
-      <c r="B22" s="62"/>
-      <c r="C22" s="37">
+      <c r="A22" s="55"/>
+      <c r="B22" s="57"/>
+      <c r="C22" s="25">
         <v>6</v>
       </c>
-      <c r="D22" s="37"/>
-      <c r="E22" s="37"/>
-      <c r="F22" s="37"/>
-      <c r="G22" s="63"/>
-      <c r="I22" s="61"/>
-      <c r="J22" s="62"/>
-      <c r="K22" s="37">
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="35"/>
+      <c r="I22" s="55"/>
+      <c r="J22" s="57"/>
+      <c r="K22" s="25">
         <v>6</v>
       </c>
-      <c r="L22" s="37"/>
-      <c r="M22" s="37"/>
-      <c r="N22" s="37"/>
-      <c r="O22" s="63"/>
+      <c r="L22" s="25"/>
+      <c r="M22" s="25"/>
+      <c r="N22" s="25"/>
+      <c r="O22" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="14">
